--- a/data/trans_dic/LAWTONB_2R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_2R2-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1225743231709998</v>
+        <v>0.1194197749514643</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1147506735455959</v>
+        <v>0.1144970044549089</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07091904925415922</v>
+        <v>0.07089868927865071</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1111957182532875</v>
+        <v>0.1124638551431534</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1632034377732255</v>
+        <v>0.1602039424750385</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1685814129487118</v>
+        <v>0.1685864438902162</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1800542481314827</v>
+        <v>0.1811391437298329</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1771778309018212</v>
+        <v>0.178984464491302</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.154417946800831</v>
+        <v>0.1522195950921144</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1491643003440704</v>
+        <v>0.153810339421501</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1378127143562105</v>
+        <v>0.1375367885791931</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1546946976162372</v>
+        <v>0.155100337970891</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2101248586067034</v>
+        <v>0.2065569726165701</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1996697928714484</v>
+        <v>0.2024682311792198</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1368610104704453</v>
+        <v>0.1367548889479064</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.166511345019194</v>
+        <v>0.1696027152440346</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2425828425915196</v>
+        <v>0.2418527588346369</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2587543894387963</v>
+        <v>0.2601581903914328</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2694507442459967</v>
+        <v>0.2641326038382059</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2324518875349486</v>
+        <v>0.2343919315047955</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2108468215698673</v>
+        <v>0.2129828259287115</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2082861586456991</v>
+        <v>0.2195430268383557</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1944522717301017</v>
+        <v>0.1946470308775592</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1942907636040337</v>
+        <v>0.1958878662224493</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.3540316529075758</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3887316101663786</v>
+        <v>0.3887316101663785</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.4889426086747548</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3415638395581373</v>
+        <v>0.3387951851500828</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3461676035518258</v>
+        <v>0.3476605746374655</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2996270758487319</v>
+        <v>0.2985474337068396</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3445566906024807</v>
+        <v>0.3432346875890563</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4263084381643086</v>
+        <v>0.4353857596989883</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4890922535270568</v>
+        <v>0.4912741754685016</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4344732323569901</v>
+        <v>0.4255986119287156</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5779205248025771</v>
+        <v>0.5752225938450569</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4143719182450291</v>
+        <v>0.4154408320200433</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.451098971753591</v>
+        <v>0.4543624760131502</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3925671951369109</v>
+        <v>0.3928694943067125</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4945099378402917</v>
+        <v>0.4949368186234404</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4723072559331837</v>
+        <v>0.4755100828297156</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4770225419994419</v>
+        <v>0.4813093013575003</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4097968285288595</v>
+        <v>0.4108148930710035</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.437618629610661</v>
+        <v>0.4338013509042214</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5424722687532423</v>
+        <v>0.5425961059032834</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5942345804533723</v>
+        <v>0.5977010435227125</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5432025315904369</v>
+        <v>0.5356557973005202</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6432007286123043</v>
+        <v>0.6410172872038553</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4980442296947353</v>
+        <v>0.5034409400544184</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.536979317613566</v>
+        <v>0.5376210033392549</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4772179678884046</v>
+        <v>0.4721860857088222</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.54960335902461</v>
+        <v>0.5504800090159431</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.226313164836029</v>
+        <v>0.2273905489297035</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.228255382775474</v>
+        <v>0.2285333646390411</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1787360360020671</v>
+        <v>0.1790318553672144</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2202914860407027</v>
+        <v>0.2210239877269374</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3066771923813669</v>
+        <v>0.3091955160175304</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3475762249137423</v>
+        <v>0.3481763183053287</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3208745113644059</v>
+        <v>0.3189387289006796</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3886350501782195</v>
+        <v>0.3892821838180633</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2839663798323573</v>
+        <v>0.2838048458762248</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3091962648391992</v>
+        <v>0.3077689444602403</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2681313873976914</v>
+        <v>0.2660814686154976</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3207268002662697</v>
+        <v>0.3205222179205318</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3028448168486079</v>
+        <v>0.3053305863903671</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3085252517787235</v>
+        <v>0.308450760542425</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.240743027232943</v>
+        <v>0.2418572840000608</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2745527401893122</v>
+        <v>0.2738753096692194</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3782483052958333</v>
+        <v>0.384093332958462</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4232204200611187</v>
+        <v>0.4222916346772128</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.394719043445698</v>
+        <v>0.3926505389474234</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4369645196111522</v>
+        <v>0.4373185801282437</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3385321764295615</v>
+        <v>0.3346412183309902</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3651658930548391</v>
+        <v>0.3606347514081517</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3188325168477419</v>
+        <v>0.3163489396928801</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3582726036959119</v>
+        <v>0.3588064208908613</v>
       </c>
     </row>
     <row r="13">
@@ -1326,40 +1326,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>35863</v>
+        <v>34940</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>35548</v>
+        <v>35470</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>23710</v>
+        <v>23704</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>44827</v>
+        <v>45339</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>55968</v>
+        <v>54939</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>59677</v>
+        <v>59679</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>68018</v>
+        <v>68427</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>77483</v>
+        <v>78273</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>98135</v>
+        <v>96738</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>99013</v>
+        <v>102097</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>98135</v>
+        <v>97939</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>130015</v>
+        <v>130356</v>
       </c>
     </row>
     <row r="7">
@@ -1370,40 +1370,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>61479</v>
+        <v>60435</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>61855</v>
+        <v>62722</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45757</v>
+        <v>45721</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>67127</v>
+        <v>68374</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>83190</v>
+        <v>82940</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>91598</v>
+        <v>92095</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>101788</v>
+        <v>99779</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>101656</v>
+        <v>102504</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>133997</v>
+        <v>135354</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>138257</v>
+        <v>145729</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>138468</v>
+        <v>138607</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>163294</v>
+        <v>164636</v>
       </c>
     </row>
     <row r="8">
@@ -1506,40 +1506,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>71688</v>
+        <v>71107</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>86490</v>
+        <v>86863</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>77004</v>
+        <v>76726</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>105802</v>
+        <v>105396</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>142348</v>
+        <v>145379</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>190247</v>
+        <v>191095</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>173863</v>
+        <v>170311</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>266362</v>
+        <v>265119</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>225332</v>
+        <v>225913</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>288176</v>
+        <v>290260</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>257982</v>
+        <v>258181</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>379766</v>
+        <v>380094</v>
       </c>
     </row>
     <row r="11">
@@ -1550,40 +1550,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>99129</v>
+        <v>99801</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>119185</v>
+        <v>120256</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>105317</v>
+        <v>105579</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>134378</v>
+        <v>133206</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>181136</v>
+        <v>181177</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>231145</v>
+        <v>232493</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>217373</v>
+        <v>214353</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>296450</v>
+        <v>295444</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>270832</v>
+        <v>273767</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>343038</v>
+        <v>343448</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>313612</v>
+        <v>310305</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>422076</v>
+        <v>422749</v>
       </c>
     </row>
     <row r="12">
@@ -1686,40 +1686,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>113715</v>
+        <v>114256</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>127740</v>
+        <v>127896</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>105692</v>
+        <v>105867</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>156453</v>
+        <v>156973</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>207572</v>
+        <v>209277</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>258240</v>
+        <v>258686</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>249618</v>
+        <v>248112</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>349079</v>
+        <v>349660</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>334884</v>
+        <v>334693</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>402763</v>
+        <v>400904</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>367141</v>
+        <v>364334</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>515865</v>
+        <v>515536</v>
       </c>
     </row>
     <row r="15">
@@ -1730,40 +1730,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>152169</v>
+        <v>153418</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>172662</v>
+        <v>172620</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>142358</v>
+        <v>143017</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>194989</v>
+        <v>194508</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>256014</v>
+        <v>259970</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>314442</v>
+        <v>313752</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>307064</v>
+        <v>305455</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>392489</v>
+        <v>392807</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>399234</v>
+        <v>394645</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>475669</v>
+        <v>469767</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>436564</v>
+        <v>433164</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>576254</v>
+        <v>577113</v>
       </c>
     </row>
     <row r="16">
